--- a/CLAY/results_CLAY.xlsx
+++ b/CLAY/results_CLAY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38680" yWindow="2300" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="2280" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Scenarios</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t>Timed out(9618%)</t>
+  </si>
+  <si>
+    <t>SBB s(gap)</t>
+  </si>
+  <si>
+    <t>AlphaECP (s)</t>
+  </si>
+  <si>
+    <t>DICOPT s(gap)</t>
+  </si>
+  <si>
+    <t>Timed out(94%)</t>
+  </si>
+  <si>
+    <t>Timed out(52%)</t>
+  </si>
+  <si>
+    <t>Timed out(82%)</t>
+  </si>
+  <si>
+    <t>Timed out(98%)</t>
   </si>
 </sst>
 </file>
@@ -133,12 +154,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,14 +454,17 @@
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +486,17 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -479,8 +515,11 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -499,8 +538,11 @@
       <c r="G4">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>36</v>
       </c>
@@ -519,8 +561,11 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -540,13 +585,18 @@
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +618,17 @@
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -588,8 +647,14 @@
       <c r="G11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -608,8 +673,14 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>5626</v>
+      </c>
+      <c r="I12">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36</v>
       </c>
@@ -628,8 +699,11 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -649,6 +723,11 @@
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">

--- a/CLAY/results_CLAY.xlsx
+++ b/CLAY/results_CLAY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2280" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="-28160" yWindow="560" windowWidth="27300" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Scenarios</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Timed out(98%)</t>
+  </si>
+  <si>
+    <t>Timed out(84%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timed out </t>
+  </si>
+  <si>
+    <t>Timed out(97%)</t>
+  </si>
+  <si>
+    <t>Timed out (67%)</t>
+  </si>
+  <si>
+    <t>Timed out (46%)</t>
   </si>
 </sst>
 </file>
@@ -154,13 +169,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,19 +473,19 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,123 +501,145 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>54</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>72</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>36</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
+        <v>120</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>108</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>216</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>66</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>84</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>4142</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1478</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43</v>
+      </c>
+      <c r="M4">
         <v>85</v>
       </c>
-      <c r="H4">
-        <v>4142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>36</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>351</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>864</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>228</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>300</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>100</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>927</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>2400</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>612</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>812</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,122 +655,138 @@
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>360</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>72</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>180</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
+        <v>32</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6</v>
+      </c>
+      <c r="M11">
         <v>14</v>
       </c>
-      <c r="H11">
-        <v>38</v>
-      </c>
-      <c r="I11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>702</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>216</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>66</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>372</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="4">
+        <v>5626</v>
+      </c>
+      <c r="G12" s="4">
+        <v>638</v>
+      </c>
+      <c r="H12" s="4">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
-        <v>5626</v>
-      </c>
-      <c r="I12">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>36</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>2241</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>864</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>228</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>1236</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>100</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>5889</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>2400</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>612</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>3284</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -755,82 +814,82 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>137</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>40</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>63</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>8</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>276</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>65</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>17</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>36</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>444</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>117</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>277</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>100</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>537</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>85</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>363</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>39</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
     </row>
